--- a/country/country.xlsx
+++ b/country/country.xlsx
@@ -1,2377 +1,2409 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="782">
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>nameFR</t>
-  </si>
-  <si>
-    <t>capital</t>
-  </si>
-  <si>
-    <t>capitalFR</t>
-  </si>
-  <si>
-    <t>flag</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Kabul</t>
-  </si>
-  <si>
-    <t>Kaboul</t>
-  </si>
-  <si>
-    <t>flags/afghanistan_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Albanie</t>
-  </si>
-  <si>
-    <t>Tirana</t>
-  </si>
-  <si>
-    <t>flags/albania_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>Algérie</t>
-  </si>
-  <si>
-    <t>Algiers</t>
-  </si>
-  <si>
-    <t>Alger</t>
-  </si>
-  <si>
-    <t>flags/algeria_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Andorre</t>
-  </si>
-  <si>
-    <t>Andorra la Vella</t>
-  </si>
-  <si>
-    <t>Andorre la Vieille</t>
-  </si>
-  <si>
-    <t>flags/andorra_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Luanda</t>
-  </si>
-  <si>
-    <t>flags/angola_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>Antigua et Barbuda</t>
-  </si>
-  <si>
-    <t>Saint John's</t>
-  </si>
-  <si>
-    <t>flags/antigua-and-barbuda_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Argentine</t>
-  </si>
-  <si>
-    <t>Buenos Aires</t>
-  </si>
-  <si>
-    <t>flags/argentina_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Arménie</t>
-  </si>
-  <si>
-    <t>Yerevan</t>
-  </si>
-  <si>
-    <t>Erevan</t>
-  </si>
-  <si>
-    <t>flags/armenia_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Australie</t>
-  </si>
-  <si>
-    <t>Canberra</t>
-  </si>
-  <si>
-    <t>flags/australia_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Autriche</t>
-  </si>
-  <si>
-    <t>Vienna</t>
-  </si>
-  <si>
-    <t>Vienne</t>
-  </si>
-  <si>
-    <t>flags/austria_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Azerbaïdjan</t>
-  </si>
-  <si>
-    <t>Baku</t>
-  </si>
-  <si>
-    <t>Bakou</t>
-  </si>
-  <si>
-    <t>flags/azerbaijan_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>The Bahamas</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Nassau</t>
-  </si>
-  <si>
-    <t>flags/bahamas_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Bahreïn</t>
-  </si>
-  <si>
-    <t>Manama</t>
-  </si>
-  <si>
-    <t>flags/bahrain_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Dhaka</t>
-  </si>
-  <si>
-    <t>Dacca</t>
-  </si>
-  <si>
-    <t>flags/bangladesh_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>Barbade</t>
-  </si>
-  <si>
-    <t>Bridgetown</t>
-  </si>
-  <si>
-    <t>flags/barbados_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Biélorussie</t>
-  </si>
-  <si>
-    <t>Minsk</t>
-  </si>
-  <si>
-    <t>flags/belarus_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Belgique</t>
-  </si>
-  <si>
-    <t>Brussels</t>
-  </si>
-  <si>
-    <t>Bruxelles</t>
-  </si>
-  <si>
-    <t>flags/belgium_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Belmopan</t>
-  </si>
-  <si>
-    <t>flags/belize_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Bénin</t>
-  </si>
-  <si>
-    <t>Porto-Novo</t>
-  </si>
-  <si>
-    <t>flags/benin_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Bhoutan</t>
-  </si>
-  <si>
-    <t>Thimphu</t>
-  </si>
-  <si>
-    <t>flags/bhutan_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Bolivie</t>
-  </si>
-  <si>
-    <t>La Paz</t>
-  </si>
-  <si>
-    <t>flags/bolivia_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Bosnie-Herzégovine</t>
-  </si>
-  <si>
-    <t>Sarajevo</t>
-  </si>
-  <si>
-    <t>flags/bosnia-and-herzegovina_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Gaborone</t>
-  </si>
-  <si>
-    <t>flags/botswana_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Brésil</t>
-  </si>
-  <si>
-    <t>Brasilia</t>
-  </si>
-  <si>
-    <t>flags/brazil_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Brunei</t>
-  </si>
-  <si>
-    <t>Bandar Seri Begawan</t>
-  </si>
-  <si>
-    <t>flags/brunei_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Bulgarie</t>
-  </si>
-  <si>
-    <t>Sofia</t>
-  </si>
-  <si>
-    <t>flags/bulgaria_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Ouagadougou</t>
-  </si>
-  <si>
-    <t>flags/burkina-faso_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Gitega</t>
-  </si>
-  <si>
-    <t>flags/burundi_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Cabo Verde</t>
-  </si>
-  <si>
-    <t>Cap-Vert</t>
-  </si>
-  <si>
-    <t>Praia</t>
-  </si>
-  <si>
-    <t>flags/cape-verde_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Cambodge</t>
-  </si>
-  <si>
-    <t>Phnom Penh</t>
-  </si>
-  <si>
-    <t>flags/cambodia_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Cameroun</t>
-  </si>
-  <si>
-    <t>Yaounde</t>
-  </si>
-  <si>
-    <t>Yaoundé</t>
-  </si>
-  <si>
-    <t>flags/cameroon_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Ottawa</t>
-  </si>
-  <si>
-    <t>flags/canada_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Central African Republic (CAR)</t>
-  </si>
-  <si>
-    <t>République Centrafricaine</t>
-  </si>
-  <si>
-    <t>Bangui</t>
-  </si>
-  <si>
-    <t>flags/central-african-republic_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Tchad</t>
-  </si>
-  <si>
-    <t>N'Djamena</t>
-  </si>
-  <si>
-    <t>N'Djaména</t>
-  </si>
-  <si>
-    <t>flags/chad_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Chili</t>
-  </si>
-  <si>
-    <t>Santiago</t>
-  </si>
-  <si>
-    <t>flags/chile_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Chine</t>
-  </si>
-  <si>
-    <t>Beijing</t>
-  </si>
-  <si>
-    <t>Pékin</t>
-  </si>
-  <si>
-    <t>flags/china_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Colombie</t>
-  </si>
-  <si>
-    <t>Bogota</t>
-  </si>
-  <si>
-    <t>flags/colombia_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Comores</t>
-  </si>
-  <si>
-    <t>Moroni</t>
-  </si>
-  <si>
-    <t>flags/comoros_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Democratic Republic of the Congo</t>
-  </si>
-  <si>
-    <t>République démocratique du Congo</t>
-  </si>
-  <si>
-    <t>Kinshasa</t>
-  </si>
-  <si>
-    <t>flags/congo-democratic-republic-of-the_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Republic of the Congo</t>
-  </si>
-  <si>
-    <t>République du Congo</t>
-  </si>
-  <si>
-    <t>Brazzaville</t>
-  </si>
-  <si>
-    <t>flags/congo-republic-of-the_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>San José</t>
-  </si>
-  <si>
-    <t>flags/costa-rica_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Côte d'Ivoire (the Ivory Coast)</t>
-  </si>
-  <si>
-    <t>Côte d’Ivoire</t>
-  </si>
-  <si>
-    <t>Yamoussoukro</t>
-  </si>
-  <si>
-    <t>flags/cote-d-ivoire_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Croatie</t>
-  </si>
-  <si>
-    <t>Zagreb</t>
-  </si>
-  <si>
-    <t>flags/croatia_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Havana</t>
-  </si>
-  <si>
-    <t>La Havane</t>
-  </si>
-  <si>
-    <t>flags/cuba_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Chypre</t>
-  </si>
-  <si>
-    <t>Nicosia</t>
-  </si>
-  <si>
-    <t>Nicosie</t>
-  </si>
-  <si>
-    <t>flags/cyprus_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>République Tchèque</t>
-  </si>
-  <si>
-    <t>Prague</t>
-  </si>
-  <si>
-    <t>flags/czech-republic_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Danemark</t>
-  </si>
-  <si>
-    <t>Copenhagen</t>
-  </si>
-  <si>
-    <t>Cophenhague</t>
-  </si>
-  <si>
-    <t>flags/denmark_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>flags/djibouti_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Dominique</t>
-  </si>
-  <si>
-    <t>Roseau</t>
-  </si>
-  <si>
-    <t>flags/dominica_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>République Dominicaine</t>
-  </si>
-  <si>
-    <t>Santo Domingo</t>
-  </si>
-  <si>
-    <t>Saint Domingue</t>
-  </si>
-  <si>
-    <t>flags/dominican-republic_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Équateur</t>
-  </si>
-  <si>
-    <t>Quito</t>
-  </si>
-  <si>
-    <t>flags/ecuador_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>Égypte</t>
-  </si>
-  <si>
-    <t>Cairo</t>
-  </si>
-  <si>
-    <t>Le Caire</t>
-  </si>
-  <si>
-    <t>flags/egypt_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Salvador</t>
-  </si>
-  <si>
-    <t>San Salvador</t>
-  </si>
-  <si>
-    <t>flags/el-salvador_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
-    <t>Guinée équatoriale</t>
-  </si>
-  <si>
-    <t>Malabo</t>
-  </si>
-  <si>
-    <t>flags/equatorial-guinea_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Érythrée</t>
-  </si>
-  <si>
-    <t>Asmara</t>
-  </si>
-  <si>
-    <t>flags/eritrea_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Estonie</t>
-  </si>
-  <si>
-    <t>Tallinn</t>
-  </si>
-  <si>
-    <t>flags/estonia_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
-    <t>Mbabane</t>
-  </si>
-  <si>
-    <t>flags/swaziland_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Éthiopie</t>
-  </si>
-  <si>
-    <t>Addis Ababa</t>
-  </si>
-  <si>
-    <t>Addis Abeba</t>
-  </si>
-  <si>
-    <t>flags/ethiopia_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>Fidji</t>
-  </si>
-  <si>
-    <t>Suva</t>
-  </si>
-  <si>
-    <t>flags/fiji_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Finlande</t>
-  </si>
-  <si>
-    <t>Helsinki</t>
-  </si>
-  <si>
-    <t>flags/finland_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>flags/france_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Libreville</t>
-  </si>
-  <si>
-    <t>flags/gabon_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Gambie</t>
-  </si>
-  <si>
-    <t>Banjul</t>
-  </si>
-  <si>
-    <t>flags/gambia_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Géorgie</t>
-  </si>
-  <si>
-    <t>Tbilisi</t>
-  </si>
-  <si>
-    <t>Tbilissi</t>
-  </si>
-  <si>
-    <t>flags/georgia_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Allemagne</t>
-  </si>
-  <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>flags/germany_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Accra</t>
-  </si>
-  <si>
-    <t>flags/ghana_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Grèce</t>
-  </si>
-  <si>
-    <t>Athens</t>
-  </si>
-  <si>
-    <t>Athènes</t>
-  </si>
-  <si>
-    <t>flags/greece_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Grenade</t>
-  </si>
-  <si>
-    <t>Saint George's</t>
-  </si>
-  <si>
-    <t>Saint Georges</t>
-  </si>
-  <si>
-    <t>flags/grenada_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guatemala City</t>
-  </si>
-  <si>
-    <t>flags/guatemala_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Guinée</t>
-  </si>
-  <si>
-    <t>Conakry</t>
-  </si>
-  <si>
-    <t>flags/guinea_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Guinée-Bissao</t>
-  </si>
-  <si>
-    <t>Bissau</t>
-  </si>
-  <si>
-    <t>Bissao</t>
-  </si>
-  <si>
-    <t>flags/guinea-bissau_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Georgetown</t>
-  </si>
-  <si>
-    <t>flags/guyana_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Haïti</t>
-  </si>
-  <si>
-    <t>Port au Prince</t>
-  </si>
-  <si>
-    <t>flags/haiti_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Tegucigalpa</t>
-  </si>
-  <si>
-    <t>flags/honduras_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>flags/hongkong_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Hongrie</t>
-  </si>
-  <si>
-    <t>Budapest</t>
-  </si>
-  <si>
-    <t>flags/hungary_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>Islande</t>
-  </si>
-  <si>
-    <t>Reykjavík</t>
-  </si>
-  <si>
-    <t>flags/iceland_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Inde</t>
-  </si>
-  <si>
-    <t>New Delhi</t>
-  </si>
-  <si>
-    <t>flags/india_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Indonésie</t>
-  </si>
-  <si>
-    <t>Jakarta</t>
-  </si>
-  <si>
-    <t>flags/indonesia_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Tehran</t>
-  </si>
-  <si>
-    <t>Téhéran</t>
-  </si>
-  <si>
-    <t>flags/iran_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Irak</t>
-  </si>
-  <si>
-    <t>Baghdad</t>
-  </si>
-  <si>
-    <t>flags/iraq_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Irlande</t>
-  </si>
-  <si>
-    <t>Dublin</t>
-  </si>
-  <si>
-    <t>flags/ireland_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Israël</t>
-  </si>
-  <si>
-    <t>Jerusalem</t>
-  </si>
-  <si>
-    <t>Jérusalem</t>
-  </si>
-  <si>
-    <t>flags/israel_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Italie</t>
-  </si>
-  <si>
-    <t>Rome</t>
-  </si>
-  <si>
-    <t>flags/italy_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Jamaïque</t>
-  </si>
-  <si>
-    <t>Kingston</t>
-  </si>
-  <si>
-    <t>flags/jamaica_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Japon</t>
-  </si>
-  <si>
-    <t>Tokyo</t>
-  </si>
-  <si>
-    <t>flags/japan_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Jordanie</t>
-  </si>
-  <si>
-    <t>Amman</t>
-  </si>
-  <si>
-    <t>flags/jordan_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Nur-Sultan</t>
-  </si>
-  <si>
-    <t>Noursoultan</t>
-  </si>
-  <si>
-    <t>flags/kazakhstan_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Nairobi</t>
-  </si>
-  <si>
-    <t>flags/kenya_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Tarawa</t>
-  </si>
-  <si>
-    <t>flags/kiribati_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Koweït</t>
-  </si>
-  <si>
-    <t>Kuwait City</t>
-  </si>
-  <si>
-    <t>flags/kuwait_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Kirghizistan</t>
-  </si>
-  <si>
-    <t>Bishkek</t>
-  </si>
-  <si>
-    <t>Bichkek</t>
-  </si>
-  <si>
-    <t>flags/kyrgyzstan_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>Vientiane</t>
-  </si>
-  <si>
-    <t>flags/laos_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Lettonie</t>
-  </si>
-  <si>
-    <t>Riga</t>
-  </si>
-  <si>
-    <t>flags/latvia_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Liban</t>
-  </si>
-  <si>
-    <t>Beirut</t>
-  </si>
-  <si>
-    <t>Beyrouth</t>
-  </si>
-  <si>
-    <t>flags/lebanon_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Maseru</t>
-  </si>
-  <si>
-    <t>flags/lesotho_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Monrovia</t>
-  </si>
-  <si>
-    <t>flags/liberia_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Libye</t>
-  </si>
-  <si>
-    <t>Tripoli</t>
-  </si>
-  <si>
-    <t>flags/libya_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>Vaduz</t>
-  </si>
-  <si>
-    <t>flags/liechtenstein_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Lituanie</t>
-  </si>
-  <si>
-    <t>Vilnius</t>
-  </si>
-  <si>
-    <t>flags/lithuania_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>flags/luxembourg_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Antananarivo</t>
-  </si>
-  <si>
-    <t>Tananarive</t>
-  </si>
-  <si>
-    <t>flags/madagascar_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Lilongwe</t>
-  </si>
-  <si>
-    <t>flags/malawi_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Malaisie</t>
-  </si>
-  <si>
-    <t>Kuala Lumpur</t>
-  </si>
-  <si>
-    <t>flags/malaysia_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Malé</t>
-  </si>
-  <si>
-    <t>flags/maldives_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Bamako</t>
-  </si>
-  <si>
-    <t>flags/mali_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Malte</t>
-  </si>
-  <si>
-    <t>Valletta</t>
-  </si>
-  <si>
-    <t>La Valette</t>
-  </si>
-  <si>
-    <t>flags/malta_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Îles Marshall</t>
-  </si>
-  <si>
-    <t>Majuro</t>
-  </si>
-  <si>
-    <t>flags/marshall-islands_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Mauritanie</t>
-  </si>
-  <si>
-    <t>Nouakchott</t>
-  </si>
-  <si>
-    <t>flags/mauritania_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Maurice</t>
-  </si>
-  <si>
-    <t>Port Louis</t>
-  </si>
-  <si>
-    <t>flags/mauritius_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Mexique</t>
-  </si>
-  <si>
-    <t>Mexico City</t>
-  </si>
-  <si>
-    <t>flags/mexico_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Micronesia</t>
-  </si>
-  <si>
-    <t>Micronésie</t>
-  </si>
-  <si>
-    <t>Palikir</t>
-  </si>
-  <si>
-    <t>flags/micronesia_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>Moldavie</t>
-  </si>
-  <si>
-    <t>Chișinău</t>
-  </si>
-  <si>
-    <t>Chisinau</t>
-  </si>
-  <si>
-    <t>flags/moldova_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>flags/monaco_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Mongolie</t>
-  </si>
-  <si>
-    <t>Ulaanbaatar</t>
-  </si>
-  <si>
-    <t>Oulan Bator</t>
-  </si>
-  <si>
-    <t>flags/mongolia_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Monténégro</t>
-  </si>
-  <si>
-    <t>Podgorica</t>
-  </si>
-  <si>
-    <t>flags/montenegro_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Maroc</t>
-  </si>
-  <si>
-    <t>Rabat</t>
-  </si>
-  <si>
-    <t>flags/morocco_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Maputo</t>
-  </si>
-  <si>
-    <t>flags/mozambique_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Birmanie</t>
-  </si>
-  <si>
-    <t>Naypyitaw</t>
-  </si>
-  <si>
-    <t>Naypyidaw</t>
-  </si>
-  <si>
-    <t>flags/myanmar_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Namibie</t>
-  </si>
-  <si>
-    <t>Windhoek</t>
-  </si>
-  <si>
-    <t>flags/namibia_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>Yaren District</t>
-  </si>
-  <si>
-    <t>Yaren</t>
-  </si>
-  <si>
-    <t>flags/nauru_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Népal</t>
-  </si>
-  <si>
-    <t>Kathmandu</t>
-  </si>
-  <si>
-    <t>Katmandou</t>
-  </si>
-  <si>
-    <t>flags/nepal_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>The Netherlands</t>
-  </si>
-  <si>
-    <t>Pays-Bas</t>
-  </si>
-  <si>
-    <t>Amsterdam</t>
-  </si>
-  <si>
-    <t>flags/netherlands_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Nouvelle Zélande</t>
-  </si>
-  <si>
-    <t>Wellington</t>
-  </si>
-  <si>
-    <t>flags/new-zealand_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Managua</t>
-  </si>
-  <si>
-    <t>flags/nicaragua_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Niamey</t>
-  </si>
-  <si>
-    <t>flags/niger_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Abuja</t>
-  </si>
-  <si>
-    <t>flags/nigeria_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>North Korea</t>
-  </si>
-  <si>
-    <t>Corée du Nord</t>
-  </si>
-  <si>
-    <t>Pyongyang</t>
-  </si>
-  <si>
-    <t>flags/north-korea_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
-    <t>Macédoine du Nord</t>
-  </si>
-  <si>
-    <t>Skopje</t>
-  </si>
-  <si>
-    <t>flags/macedonia_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Norvège</t>
-  </si>
-  <si>
-    <t>Oslo</t>
-  </si>
-  <si>
-    <t>flags/norway_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Muscat</t>
-  </si>
-  <si>
-    <t>Mascate</t>
-  </si>
-  <si>
-    <t>flags/oman_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Islamabad</t>
-  </si>
-  <si>
-    <t>flags/pakistan_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Palaos</t>
-  </si>
-  <si>
-    <t>Ngerulmud</t>
-  </si>
-  <si>
-    <t>flags/palau_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Palestine</t>
-  </si>
-  <si>
-    <t>Ramallah</t>
-  </si>
-  <si>
-    <t>flags/palestine_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Panamá</t>
-  </si>
-  <si>
-    <t>Panama City</t>
-  </si>
-  <si>
-    <t>flags/panama_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Papouasie Nouvelle Guinée</t>
-  </si>
-  <si>
-    <t>Port Moresby</t>
-  </si>
-  <si>
-    <t>flags/papua-new-guinea_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Asunción</t>
-  </si>
-  <si>
-    <t>Asuncion</t>
-  </si>
-  <si>
-    <t>flags/paraguay_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Pérou</t>
-  </si>
-  <si>
-    <t>Lima</t>
-  </si>
-  <si>
-    <t>flags/peru_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Manila</t>
-  </si>
-  <si>
-    <t>Manille</t>
-  </si>
-  <si>
-    <t>flags/philippines_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Pologne</t>
-  </si>
-  <si>
-    <t>Warsaw</t>
-  </si>
-  <si>
-    <t>Varsovie</t>
-  </si>
-  <si>
-    <t>flags/poland_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Lisbon</t>
-  </si>
-  <si>
-    <t>Lsbonne</t>
-  </si>
-  <si>
-    <t>flags/portugal_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Doha</t>
-  </si>
-  <si>
-    <t>flags/qatar_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Roumanie</t>
-  </si>
-  <si>
-    <t>Bucharest</t>
-  </si>
-  <si>
-    <t>Bucarest</t>
-  </si>
-  <si>
-    <t>flags/romania_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Russie</t>
-  </si>
-  <si>
-    <t>Moscow</t>
-  </si>
-  <si>
-    <t>Moscou</t>
-  </si>
-  <si>
-    <t>flags/russia_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Kigali</t>
-  </si>
-  <si>
-    <t>flags/rwanda_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Saint Christophe et Niévès</t>
-  </si>
-  <si>
-    <t>Basseterre</t>
-  </si>
-  <si>
-    <t>flags/saint-kitts-and-nevis_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Sainte Lucie</t>
-  </si>
-  <si>
-    <t>Castries</t>
-  </si>
-  <si>
-    <t>flags/saint-lucia_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Saint Vincent et les Grenadines</t>
-  </si>
-  <si>
-    <t>Kingstown</t>
-  </si>
-  <si>
-    <t>flags/saint-vincent-and-the-grenadines_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>Apia</t>
-  </si>
-  <si>
-    <t>flags/samoa_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>Saint-Marin</t>
-  </si>
-  <si>
-    <t>Saint Marin</t>
-  </si>
-  <si>
-    <t>flags/san-marino_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>São Tomé et Principe</t>
-  </si>
-  <si>
-    <t>São Tomé</t>
-  </si>
-  <si>
-    <t>flags/sao-tome-and-principe_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Arabie Saoudite</t>
-  </si>
-  <si>
-    <t>Riyadh</t>
-  </si>
-  <si>
-    <t>Riyad</t>
-  </si>
-  <si>
-    <t>flags/saudi-arabia_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Sénégal</t>
-  </si>
-  <si>
-    <t>Dakar</t>
-  </si>
-  <si>
-    <t>flags/senegal_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Serbie</t>
-  </si>
-  <si>
-    <t>Belgrade</t>
-  </si>
-  <si>
-    <t>flags/serbia_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Victoria</t>
-  </si>
-  <si>
-    <t>flags/seychelles_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Freetown</t>
-  </si>
-  <si>
-    <t>flags/sierra-leone_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Singapour</t>
-  </si>
-  <si>
-    <t>flags/singapore_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Slovaquie</t>
-  </si>
-  <si>
-    <t>Bratislava</t>
-  </si>
-  <si>
-    <t>flags/slovakia_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Slovénie</t>
-  </si>
-  <si>
-    <t>Ljubljana</t>
-  </si>
-  <si>
-    <t>flags/slovenia_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Îles Salomon</t>
-  </si>
-  <si>
-    <t>Honiara</t>
-  </si>
-  <si>
-    <t>flags/solomon-islands_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Somalie</t>
-  </si>
-  <si>
-    <t>Mogadishu</t>
-  </si>
-  <si>
-    <t>Mogadiscio</t>
-  </si>
-  <si>
-    <t>flags/somalia_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Afrique du Sud</t>
-  </si>
-  <si>
-    <t>Pretoria</t>
-  </si>
-  <si>
-    <t>flags/south-africa_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Corée du Sud</t>
-  </si>
-  <si>
-    <t>Seoul</t>
-  </si>
-  <si>
-    <t>Séoul</t>
-  </si>
-  <si>
-    <t>flags/south-korea_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
-    <t>Soudan du Sud</t>
-  </si>
-  <si>
-    <t>Juba</t>
-  </si>
-  <si>
-    <t>Djouba</t>
-  </si>
-  <si>
-    <t>flags/south-sudan_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Espagne</t>
-  </si>
-  <si>
-    <t>Madrid</t>
-  </si>
-  <si>
-    <t>flags/spain_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Colombo</t>
-  </si>
-  <si>
-    <t>flags/sri-lanka_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Soudan</t>
-  </si>
-  <si>
-    <t>Khartoum</t>
-  </si>
-  <si>
-    <t>flags/sudan_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Paramaribo</t>
-  </si>
-  <si>
-    <t>flags/suriname_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Suède</t>
-  </si>
-  <si>
-    <t>Stockholm</t>
-  </si>
-  <si>
-    <t>flags/sweden_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Suisse</t>
-  </si>
-  <si>
-    <t>Bern</t>
-  </si>
-  <si>
-    <t>Berne</t>
-  </si>
-  <si>
-    <t>flags/switzerland_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Syria</t>
-  </si>
-  <si>
-    <t>Syrie</t>
-  </si>
-  <si>
-    <t>Damascus</t>
-  </si>
-  <si>
-    <t>Damas</t>
-  </si>
-  <si>
-    <t>flags/syria_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Taïwan</t>
-  </si>
-  <si>
-    <t>Taipei</t>
-  </si>
-  <si>
-    <t>flags/taiwan_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Tadjikistan</t>
-  </si>
-  <si>
-    <t>Dushanbe</t>
-  </si>
-  <si>
-    <t>Douchanbé</t>
-  </si>
-  <si>
-    <t>flags/tajikistan_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Tanzanie</t>
-  </si>
-  <si>
-    <t>Dodoma</t>
-  </si>
-  <si>
-    <t>flags/tanzania_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Thaïlande</t>
-  </si>
-  <si>
-    <t>Bangkok</t>
-  </si>
-  <si>
-    <t>flags/thailand_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Timor</t>
-  </si>
-  <si>
-    <t>Dili</t>
-  </si>
-  <si>
-    <t>flags/east-timor_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Lomé</t>
-  </si>
-  <si>
-    <t>flags/togo_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Nuku'alofa</t>
-  </si>
-  <si>
-    <t>flags/tonga_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Trinité et Tobago</t>
-  </si>
-  <si>
-    <t>Port of Spain</t>
-  </si>
-  <si>
-    <t>Port d'Espagne</t>
-  </si>
-  <si>
-    <t>flags/trinidad-and-tobago_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Tunisie</t>
-  </si>
-  <si>
-    <t>Tunis</t>
-  </si>
-  <si>
-    <t>flags/tunisia_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Turquie</t>
-  </si>
-  <si>
-    <t>Ankara</t>
-  </si>
-  <si>
-    <t>flags/turkey_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Turkménistan</t>
-  </si>
-  <si>
-    <t>Ashgabat</t>
-  </si>
-  <si>
-    <t>Achkhabad</t>
-  </si>
-  <si>
-    <t>flags/turkmenistan_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>Funafuti</t>
-  </si>
-  <si>
-    <t>flags/tuvalu_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Ouganda</t>
-  </si>
-  <si>
-    <t>Kampala</t>
-  </si>
-  <si>
-    <t>flags/uganda_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Kyiv</t>
-  </si>
-  <si>
-    <t>Kiev</t>
-  </si>
-  <si>
-    <t>flags/ukraine_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>The United Arab Emirates (UAE)</t>
-  </si>
-  <si>
-    <t>Émirats Arabes Unis</t>
-  </si>
-  <si>
-    <t>Abu Dhabi</t>
-  </si>
-  <si>
-    <t>Abou Dabi</t>
-  </si>
-  <si>
-    <t>flags/united-arab-emirates_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>The United Kingdom (UK)</t>
-  </si>
-  <si>
-    <t>Royaume-Uni</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Londres</t>
-  </si>
-  <si>
-    <t>flags/united-kingdom_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>The United States (USA)</t>
-  </si>
-  <si>
-    <t>États-Unis</t>
-  </si>
-  <si>
-    <t>Washington, D.C.</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>flags/united-states-of-america_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Montevideo</t>
-  </si>
-  <si>
-    <t>flags/uruguay_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Ouzbékistan</t>
-  </si>
-  <si>
-    <t>Tashkent</t>
-  </si>
-  <si>
-    <t>flags/uzbekistan_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Port Vila</t>
-  </si>
-  <si>
-    <t>flags/vanuatu_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Vatican City</t>
-  </si>
-  <si>
-    <t>Vatican</t>
-  </si>
-  <si>
-    <t>Cité du Vatican</t>
-  </si>
-  <si>
-    <t>flags/vatican-city_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Caracas</t>
-  </si>
-  <si>
-    <t>flags/venezuela_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Viêt Nam</t>
-  </si>
-  <si>
-    <t>Hanoi</t>
-  </si>
-  <si>
-    <t>Hanoï</t>
-  </si>
-  <si>
-    <t>flags/vietnam_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Yémen</t>
-  </si>
-  <si>
-    <t>Sana'a</t>
-  </si>
-  <si>
-    <t>Sanaa</t>
-  </si>
-  <si>
-    <t>flags/yemen_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zambie</t>
-  </si>
-  <si>
-    <t>Lusaka</t>
-  </si>
-  <si>
-    <t>flags/zambia_flag-svg.svg</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>Harare</t>
-  </si>
-  <si>
-    <t>flags/zimbabwe_flag-svg.svg</t>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nameFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capitalFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaboul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/afghanistan_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tirana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/albania_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algérie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/algeria_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andorra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andorre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andorra la Vella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andorre la Vieille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/andorra_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/angola_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antigua et Barbuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint John's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/antigua-and-barbuda_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buenos Aires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/argentina_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arménie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yerevan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erevan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/armenia_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canberra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/australia_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autriche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vienna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vienne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/austria_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaïdjan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/azerbaijan_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Bahamas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahamas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nassau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/bahamas_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahreïn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/bahrain_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dacca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/bangladesh_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridgetown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/barbados_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biélorussie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minsk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/belarus_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brussels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruxelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/belgium_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belmopan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/belize_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bénin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porto-Novo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/benin_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhutan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhoutan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thimphu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/bhutan_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Paz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/bolivia_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnie-Herzégovine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarajevo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/bosnia-and-herzegovina_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaborone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/botswana_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brésil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brasilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/brazil_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brunei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bandar Seri Begawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/brunei_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgarie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/bulgaria_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burkina Faso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ouagadougou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/burkina-faso_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gitega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/burundi_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabo Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap-Vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Praia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/cape-verde_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phnom Penh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/cambodia_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yaounde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yaoundé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/cameroon_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ottawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/canada_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central African Republic (CAR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">République Centrafricaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/central-african-republic_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tchad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N'Djamena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N'Djaména</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/chad_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chili</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santiago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/chile_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beijing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pékin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/china_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bogota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/colombia_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/comoros_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">République démocratique du Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinshasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/congo-democratic-republic-of-the_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of the Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">République du Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazzaville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/congo-republic-of-the_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San José</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/costa-rica_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Côte d'Ivoire (the Ivory Coast)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Côte d’Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yamoussoukro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/cote-d-ivoire_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zagreb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/croatia_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Havana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Havane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/cuba_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chypre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicosia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicosie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/cyprus_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">République Tchèque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prague</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/czech-republic_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danemark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copenhagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cophenhague</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/denmark_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/djibouti_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roseau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/dominica_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">République Dominicaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santo Domingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Domingue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/dominican-republic_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Équateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/ecuador_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Égypte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cairo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Caire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/egypt_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/el-salvador_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinée équatoriale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malabo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/equatorial-guinea_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Érythrée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asmara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/eritrea_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tallinn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/estonia_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eswatini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbabane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/swaziland_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Éthiopie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addis Ababa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addis Abeba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/ethiopia_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fidji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/fiji_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finlande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helsinki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/finland_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/france_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libreville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/gabon_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banjul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/gambia_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Géorgie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tbilisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tbilissi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/georgia_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allemagne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/germany_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/ghana_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grèce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athènes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/greece_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint George's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Georges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/grenada_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/guatemala_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conakry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/guinea_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinée-Bissao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bissao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/guinea-bissau_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgetown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/guyana_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haïti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port au Prince</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/haiti_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tegucigalpa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/honduras_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hong Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/hongkong_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hongrie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budapest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/hungary_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iceland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reykjavík</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/iceland_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Delhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/india_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonésie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jakarta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/indonesia_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tehran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Téhéran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/iran_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baghdad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/iraq_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irlande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dublin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/ireland_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israël</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jerusalem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jérusalem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/israel_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/italy_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaïque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/jamaica_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/japan_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/jordan_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nur-Sultan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noursoultan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/kazakhstan_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nairobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/kenya_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiribati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/kiribati_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koweït</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/kuwait_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyrgyzstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kirghizistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bishkek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bichkek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/kyrgyzstan_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vientiane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/laos_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lettonie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/latvia_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebanon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beirut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beyrouth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/lebanon_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maseru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/lesotho_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monrovia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/liberia_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tripoli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/libya_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liechtenstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaduz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/liechtenstein_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lituanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vilnius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/lithuania_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/luxembourg_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antananarivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tananarive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/madagascar_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lilongwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/malawi_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaisie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuala Lumpur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/malaysia_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/maldives_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bamako</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/mali_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valletta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Valette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/malta_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marshall Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Îles Marshall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Majuro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/marshall-islands_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouakchott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/mauritania_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maurice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port Louis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/mauritius_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/mexico_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micronesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micronésie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palikir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/micronesia_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldavie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chișinău</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chisinau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/moldova_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monaco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/monaco_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulaanbaatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oulan Bator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/mongolia_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monténégro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podgorica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/montenegro_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maroc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rabat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/morocco_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maputo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/mozambique_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birmanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naypyitaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naypyidaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/myanmar_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windhoek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/namibia_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nauru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yaren District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yaren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/nauru_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Népal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kathmandu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katmandou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/nepal_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pays-Bas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amsterdam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/netherlands_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouvelle Zélande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wellington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/new-zealand_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/nicaragua_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niamey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/niger_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abuja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/nigeria_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corée du Nord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyongyang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/north-korea_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macédoine du Nord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skopje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/macedonia_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norvège</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oslo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/norway_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muscat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mascate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/oman_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islamabad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/pakistan_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palaos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngerulmud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/palau_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palestine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramallah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/palestine_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panamá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/panama_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papouasie Nouvelle Guinée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port Moresby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/papua-new-guinea_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asunción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asuncion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/paraguay_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pérou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/peru_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/philippines_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pologne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warsaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varsovie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/poland_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisbonne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/portugal_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/qatar_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roumanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bucharest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bucarest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/romania_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moscow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moscou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/russia_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kigali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/rwanda_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Christophe et Niévès</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basseterre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/saint-kitts-and-nevis_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Lucia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sainte Lucie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/saint-lucia_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Vincent et les Grenadines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingstown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/saint-vincent-and-the-grenadines_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/samoa_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Marino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint-Marin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Marin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/san-marino_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São Tomé et Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São Tomé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/sao-tome-and-principe_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arabie Saoudite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riyadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riyad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/saudi-arabia_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sénégal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dakar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/senegal_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/serbia_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/seychelles_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freetown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/sierra-leone_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/singapore_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovaquie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bratislava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/slovakia_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovénie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ljubljana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/slovenia_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Îles Salomon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honiara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/solomon-islands_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mogadishu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mogadiscio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/somalia_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afrique du Sud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/south-africa_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corée du Sud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seoul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Séoul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/south-korea_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soudan du Sud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djouba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/south-sudan_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espagne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/spain_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/sri-lanka_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khartoum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/sudan_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suriname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paramaribo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/suriname_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suède</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stockholm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/sweden_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suisse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/switzerland_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syrie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damascus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/syria_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taïwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taipei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/taiwan_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tadjikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dushanbe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Douchanbé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/tajikistan_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dodoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/tanzania_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thaïlande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangkok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/thailand_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dili</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/east-timor_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lomé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/togo_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuku'alofa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/tonga_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinité et Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port of Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port d'Espagne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/trinidad-and-tobago_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/tunisia_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turquie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/turkey_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkmenistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkménistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashgabat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achkhabad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/turkmenistan_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuvalu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funafuti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/tuvalu_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ouganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kampala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/uganda_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyiv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/ukraine_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The United Arab Emirates (UAE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Émirats Arabes Unis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abu Dhabi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abou Dabi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/united-arab-emirates_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The United Kingdom (UK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Royaume-Uni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Londres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/united-kingdom_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The United States (USA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">États-Unis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington, D.C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/united-states-of-america_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montevideo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/uruguay_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzbekistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ouzbékistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tashkent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/uzbekistan_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port Vila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/vanuatu_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vatican City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vatican</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cité du Vatican</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/vatican-city_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caracas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/venezuela_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viêt Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanoi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanoï</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/vietnam_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yémen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sana'a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/yemen_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zambie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lusaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/zambia_flag-svg.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags/zimbabwe_flag-svg.svg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2379,239 +2411,78 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4285F4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="EA4335"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="FBBC04"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="34A853"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="FF6D01"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="46BDC6"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="1155CC"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="1155CC"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D142" activeCellId="0" sqref="D142"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2628,7 +2499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2645,7 +2516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2662,7 +2533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -2679,7 +2550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -2696,7 +2567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -2713,7 +2584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -2730,7 +2601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -2747,7 +2618,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2764,7 +2635,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -2781,7 +2652,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -2798,7 +2669,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
@@ -2815,7 +2686,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -2832,7 +2703,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -2849,7 +2720,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -2866,7 +2737,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -2883,7 +2754,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
@@ -2900,7 +2771,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
@@ -2917,7 +2788,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>78</v>
       </c>
@@ -2934,7 +2805,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -2951,7 +2822,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
@@ -2968,7 +2839,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
@@ -2985,7 +2856,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>93</v>
       </c>
@@ -3002,7 +2873,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>97</v>
       </c>
@@ -3019,7 +2890,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
@@ -3036,7 +2907,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
@@ -3053,7 +2924,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>107</v>
       </c>
@@ -3070,7 +2941,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>111</v>
       </c>
@@ -3087,7 +2958,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>114</v>
       </c>
@@ -3104,7 +2975,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>117</v>
       </c>
@@ -3121,7 +2992,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>121</v>
       </c>
@@ -3138,7 +3009,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>125</v>
       </c>
@@ -3155,7 +3026,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>130</v>
       </c>
@@ -3172,7 +3043,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>133</v>
       </c>
@@ -3189,7 +3060,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>137</v>
       </c>
@@ -3206,7 +3077,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>142</v>
       </c>
@@ -3223,7 +3094,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>146</v>
       </c>
@@ -3240,7 +3111,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>151</v>
       </c>
@@ -3257,7 +3128,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>155</v>
       </c>
@@ -3274,7 +3145,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>159</v>
       </c>
@@ -3291,7 +3162,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>163</v>
       </c>
@@ -3308,7 +3179,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>167</v>
       </c>
@@ -3325,7 +3196,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>170</v>
       </c>
@@ -3342,7 +3213,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>174</v>
       </c>
@@ -3359,7 +3230,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>178</v>
       </c>
@@ -3376,7 +3247,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>182</v>
       </c>
@@ -3393,7 +3264,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>187</v>
       </c>
@@ -3410,7 +3281,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>191</v>
       </c>
@@ -3427,7 +3298,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>196</v>
       </c>
@@ -3444,7 +3315,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>198</v>
       </c>
@@ -3461,7 +3332,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>202</v>
       </c>
@@ -3478,7 +3349,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>207</v>
       </c>
@@ -3495,7 +3366,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>211</v>
       </c>
@@ -3512,7 +3383,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>216</v>
       </c>
@@ -3529,7 +3400,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>220</v>
       </c>
@@ -3546,7 +3417,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>224</v>
       </c>
@@ -3563,7 +3434,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>228</v>
       </c>
@@ -3580,7 +3451,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>232</v>
       </c>
@@ -3597,7 +3468,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>235</v>
       </c>
@@ -3614,7 +3485,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>240</v>
       </c>
@@ -3631,7 +3502,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>244</v>
       </c>
@@ -3648,7 +3519,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>248</v>
       </c>
@@ -3665,7 +3536,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>251</v>
       </c>
@@ -3682,7 +3553,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>254</v>
       </c>
@@ -3699,7 +3570,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>258</v>
       </c>
@@ -3716,7 +3587,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>263</v>
       </c>
@@ -3733,7 +3604,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>267</v>
       </c>
@@ -3750,7 +3621,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>270</v>
       </c>
@@ -3767,7 +3638,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>275</v>
       </c>
@@ -3784,7 +3655,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>280</v>
       </c>
@@ -3801,7 +3672,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>283</v>
       </c>
@@ -3818,7 +3689,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>287</v>
       </c>
@@ -3835,7 +3706,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>292</v>
       </c>
@@ -3852,7 +3723,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>295</v>
       </c>
@@ -3869,7 +3740,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>299</v>
       </c>
@@ -3886,7 +3757,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>302</v>
       </c>
@@ -3903,7 +3774,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>304</v>
       </c>
@@ -3920,7 +3791,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>308</v>
       </c>
@@ -3937,7 +3808,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>312</v>
       </c>
@@ -3954,7 +3825,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>316</v>
       </c>
@@ -3971,7 +3842,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>320</v>
       </c>
@@ -3988,7 +3859,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>324</v>
       </c>
@@ -4005,7 +3876,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>328</v>
       </c>
@@ -4022,7 +3893,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>332</v>
       </c>
@@ -4039,7 +3910,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>337</v>
       </c>
@@ -4056,7 +3927,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>341</v>
       </c>
@@ -4073,7 +3944,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>345</v>
       </c>
@@ -4090,7 +3961,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>349</v>
       </c>
@@ -4107,7 +3978,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>353</v>
       </c>
@@ -4124,7 +3995,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>357</v>
       </c>
@@ -4141,7 +4012,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>360</v>
       </c>
@@ -4158,7 +4029,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>363</v>
       </c>
@@ -4175,7 +4046,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>367</v>
       </c>
@@ -4192,7 +4063,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>372</v>
       </c>
@@ -4209,7 +4080,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>375</v>
       </c>
@@ -4226,7 +4097,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>379</v>
       </c>
@@ -4243,7 +4114,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>384</v>
       </c>
@@ -4260,7 +4131,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>387</v>
       </c>
@@ -4277,7 +4148,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>390</v>
       </c>
@@ -4294,7 +4165,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>394</v>
       </c>
@@ -4311,7 +4182,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>397</v>
       </c>
@@ -4328,7 +4199,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>401</v>
       </c>
@@ -4345,7 +4216,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>403</v>
       </c>
@@ -4362,7 +4233,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>407</v>
       </c>
@@ -4379,7 +4250,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>410</v>
       </c>
@@ -4396,7 +4267,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>414</v>
       </c>
@@ -4413,7 +4284,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>417</v>
       </c>
@@ -4430,7 +4301,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>420</v>
       </c>
@@ -4447,7 +4318,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>425</v>
       </c>
@@ -4464,7 +4335,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>429</v>
       </c>
@@ -4481,7 +4352,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>433</v>
       </c>
@@ -4498,7 +4369,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>437</v>
       </c>
@@ -4515,7 +4386,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>441</v>
       </c>
@@ -4532,7 +4403,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>445</v>
       </c>
@@ -4549,7 +4420,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>450</v>
       </c>
@@ -4566,7 +4437,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>452</v>
       </c>
@@ -4583,7 +4454,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>457</v>
       </c>
@@ -4600,7 +4471,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>461</v>
       </c>
@@ -4617,7 +4488,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>465</v>
       </c>
@@ -4634,7 +4505,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>468</v>
       </c>
@@ -4651,7 +4522,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>473</v>
       </c>
@@ -4668,7 +4539,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>477</v>
       </c>
@@ -4685,7 +4556,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>481</v>
       </c>
@@ -4702,7 +4573,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>486</v>
       </c>
@@ -4719,7 +4590,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>490</v>
       </c>
@@ -4736,7 +4607,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>494</v>
       </c>
@@ -4753,7 +4624,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
         <v>497</v>
       </c>
@@ -4770,7 +4641,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
         <v>500</v>
       </c>
@@ -4787,7 +4658,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
         <v>503</v>
       </c>
@@ -4804,7 +4675,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
         <v>507</v>
       </c>
@@ -4821,7 +4692,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
         <v>511</v>
       </c>
@@ -4838,7 +4709,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
         <v>515</v>
       </c>
@@ -4855,7 +4726,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
         <v>519</v>
       </c>
@@ -4872,7 +4743,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
         <v>522</v>
       </c>
@@ -4889,7 +4760,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
         <v>526</v>
       </c>
@@ -4906,7 +4777,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
         <v>529</v>
       </c>
@@ -4923,7 +4794,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
         <v>533</v>
       </c>
@@ -4940,7 +4811,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>537</v>
       </c>
@@ -4957,7 +4828,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
         <v>541</v>
       </c>
@@ -4974,7 +4845,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
         <v>545</v>
       </c>
@@ -4991,7 +4862,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
         <v>549</v>
       </c>
@@ -5008,7 +4879,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
         <v>554</v>
       </c>
@@ -5025,7 +4896,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
         <v>558</v>
       </c>
@@ -5042,7 +4913,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
         <v>561</v>
       </c>
@@ -5059,7 +4930,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
         <v>566</v>
       </c>
@@ -5076,7 +4947,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
         <v>571</v>
       </c>
@@ -5093,7 +4964,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
         <v>574</v>
       </c>
@@ -5110,7 +4981,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
         <v>578</v>
       </c>
@@ -5127,7 +4998,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
         <v>582</v>
       </c>
@@ -5144,7 +5015,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
         <v>586</v>
       </c>
@@ -5161,7 +5032,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
         <v>589</v>
       </c>
@@ -5178,7 +5049,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
         <v>593</v>
       </c>
@@ -5195,7 +5066,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
         <v>597</v>
       </c>
@@ -5212,7 +5083,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
         <v>602</v>
       </c>
@@ -5229,7 +5100,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
         <v>606</v>
       </c>
@@ -5246,7 +5117,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
         <v>610</v>
       </c>
@@ -5263,7 +5134,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
         <v>613</v>
       </c>
@@ -5280,7 +5151,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
         <v>616</v>
       </c>
@@ -5297,7 +5168,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
         <v>619</v>
       </c>
@@ -5314,7 +5185,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
         <v>623</v>
       </c>
@@ -5331,7 +5202,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
         <v>627</v>
       </c>
@@ -5348,7 +5219,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
         <v>631</v>
       </c>
@@ -5365,7 +5236,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
         <v>636</v>
       </c>
@@ -5382,7 +5253,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
         <v>640</v>
       </c>
@@ -5399,7 +5270,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
         <v>645</v>
       </c>
@@ -5416,7 +5287,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
         <v>650</v>
       </c>
@@ -5433,7 +5304,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
         <v>654</v>
       </c>
@@ -5450,7 +5321,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
         <v>657</v>
       </c>
@@ -5467,7 +5338,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
         <v>661</v>
       </c>
@@ -5484,7 +5355,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
         <v>664</v>
       </c>
@@ -5501,7 +5372,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
         <v>668</v>
       </c>
@@ -5518,7 +5389,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
         <v>673</v>
       </c>
@@ -5535,7 +5406,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
         <v>678</v>
       </c>
@@ -5552,7 +5423,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
         <v>682</v>
       </c>
@@ -5569,7 +5440,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
         <v>687</v>
       </c>
@@ -5586,7 +5457,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
         <v>691</v>
       </c>
@@ -5603,7 +5474,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
         <v>695</v>
       </c>
@@ -5620,7 +5491,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
         <v>698</v>
       </c>
@@ -5637,7 +5508,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
         <v>701</v>
       </c>
@@ -5654,7 +5525,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
         <v>704</v>
       </c>
@@ -5671,7 +5542,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
         <v>709</v>
       </c>
@@ -5688,7 +5559,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
         <v>713</v>
       </c>
@@ -5705,7 +5576,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
         <v>717</v>
       </c>
@@ -5722,7 +5593,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
         <v>722</v>
       </c>
@@ -5739,7 +5610,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
         <v>725</v>
       </c>
@@ -5756,7 +5627,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
         <v>729</v>
       </c>
@@ -5773,7 +5644,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
         <v>733</v>
       </c>
@@ -5790,7 +5661,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
         <v>738</v>
       </c>
@@ -5807,7 +5678,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
         <v>743</v>
       </c>
@@ -5824,7 +5695,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
         <v>748</v>
       </c>
@@ -5841,7 +5712,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
         <v>751</v>
       </c>
@@ -5858,7 +5729,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
         <v>755</v>
       </c>
@@ -5875,7 +5746,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
         <v>758</v>
       </c>
@@ -5892,7 +5763,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
         <v>762</v>
       </c>
@@ -5909,7 +5780,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
         <v>765</v>
       </c>
@@ -5926,7 +5797,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
         <v>770</v>
       </c>
@@ -5943,7 +5814,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
         <v>775</v>
       </c>
@@ -5960,7 +5831,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
         <v>779</v>
       </c>
@@ -5978,6 +5849,12 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>